--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\GitHub\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B8FC09-F016-40CF-ACCF-4C979668F6C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0053EFAB-651D-413B-99BF-10DCE11CC7C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Datum</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Studenliste von Sebastian Ederer</t>
+  </si>
+  <si>
+    <t>Wireframe für WebUI erstellen</t>
+  </si>
+  <si>
+    <t>Meeting und Anpassungen für das Wireframe</t>
   </si>
 </sst>
 </file>
@@ -451,7 +457,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,172 +556,198 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4">
+        <v>44150</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
       <c r="C8">
         <f>C7+B8</f>
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>44154</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>44156</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\GitHub\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebie\Desktop\Google Drive\Studium\PA1\GitHub\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0053EFAB-651D-413B-99BF-10DCE11CC7C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0984F4-BC01-4246-90C3-BC5B92C758BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Datum</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Meeting und Anpassungen für das Wireframe</t>
+  </si>
+  <si>
+    <t>Passendes UI-Framework rausgesucht</t>
   </si>
 </sst>
 </file>
@@ -457,7 +460,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,153 +604,162 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>44168</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebie\Desktop\Google Drive\Studium\PA1\GitHub\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\GitHub\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0984F4-BC01-4246-90C3-BC5B92C758BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECDD6AE-15EA-4688-B09F-E7676D1F8FC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="13815" yWindow="1590" windowWidth="13545" windowHeight="9285" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,11 +608,11 @@
         <v>44168</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -621,145 +621,145 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\GitHub\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECDD6AE-15EA-4688-B09F-E7676D1F8FC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70A104D-FA3A-42AB-8A1B-5AC513D51EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13815" yWindow="1590" windowWidth="13545" windowHeight="9285" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Passendes UI-Framework rausgesucht</t>
+  </si>
+  <si>
+    <t>Dokus und Tutorials über Vue.js gelesen/gesehen</t>
+  </si>
+  <si>
+    <t>Meeting + WebUI</t>
   </si>
 </sst>
 </file>
@@ -460,7 +466,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,147 +625,174 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>44174</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>44182</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>44183</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
       <c r="C14">
         <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\GitHub\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70A104D-FA3A-42AB-8A1B-5AC513D51EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036BA7E1-9293-4FE1-9F29-7016AC18BC30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Datum</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Meeting + WebUI</t>
+  </si>
+  <si>
+    <t>Development WebUI</t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,129 +673,147 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>44186</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>44217</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\GitHub\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036BA7E1-9293-4FE1-9F29-7016AC18BC30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D890585-4A08-49E2-A964-96DE7C87B0ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -692,11 +692,11 @@
         <v>44217</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -705,115 +705,115 @@
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\GitHub\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D890585-4A08-49E2-A964-96DE7C87B0ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AAD28D-90AC-4888-84F0-D6815DB4F89B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Datum</t>
   </si>
@@ -469,7 +469,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,118 +702,127 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>44218</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\GitHub\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AAD28D-90AC-4888-84F0-D6815DB4F89B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AC96C2-0435-408D-94B1-8B4C9471E4E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,11 +707,11 @@
         <v>44218</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -720,109 +720,109 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\GitHub\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AC96C2-0435-408D-94B1-8B4C9471E4E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAA45E9-6BC2-4FC2-BE81-4F7C779C83D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Datum</t>
   </si>
@@ -469,7 +469,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,111 +718,120 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>44221</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\GitHub\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAA45E9-6BC2-4FC2-BE81-4F7C779C83D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B98D50B-616C-4B02-814B-2B49E0096E6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="6450" yWindow="2220" windowWidth="17070" windowHeight="11790" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Datum</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Development WebUI</t>
+  </si>
+  <si>
+    <t>Meeting + Development WebUI</t>
   </si>
 </sst>
 </file>
@@ -469,7 +472,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,105 +736,114 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>44224</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\GitHub\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B98D50B-616C-4B02-814B-2B49E0096E6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEB591B-E4BF-4D7B-B695-E445FC8208EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="2220" windowWidth="17070" windowHeight="11790" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Datum</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Meeting + Development WebUI</t>
+  </si>
+  <si>
+    <t>Meeting+Development WebUI</t>
   </si>
 </sst>
 </file>
@@ -472,7 +475,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,99 +754,108 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>44245</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\GitHub\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEB591B-E4BF-4D7B-B695-E445FC8208EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC3B8FD-1A95-4780-BDCE-9D6783F1BA6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -475,7 +475,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,11 +758,11 @@
         <v>44245</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -771,91 +771,91 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\GitHub\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC3B8FD-1A95-4780-BDCE-9D6783F1BA6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCED4D2B-C601-4A3F-BF35-8603F727BF8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Datum</t>
   </si>
@@ -475,7 +475,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,93 +769,102 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>44246</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\GitHub\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCED4D2B-C601-4A3F-BF35-8603F727BF8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768D2CD6-45AD-4FA8-83B6-BFF700BCEA21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -475,7 +475,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,11 +773,11 @@
         <v>44246</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -786,85 +786,85 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\GitHub\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768D2CD6-45AD-4FA8-83B6-BFF700BCEA21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371C5605-56C5-4498-9154-7ECAA76947B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Datum</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Meeting+Development WebUI</t>
+  </si>
+  <si>
+    <t>Meeting+Investigating Apexcharts</t>
   </si>
 </sst>
 </file>
@@ -475,7 +478,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,87 +787,105 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>44247</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>44250</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\GitHub\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371C5605-56C5-4498-9154-7ECAA76947B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C6D8CC-C3A4-4E3E-8B77-964F84D71F80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Datum</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>Meeting+Investigating Apexcharts</t>
+  </si>
+  <si>
+    <t>Poster + Development WebUI</t>
+  </si>
+  <si>
+    <t>29.02.2021</t>
+  </si>
+  <si>
+    <t>Research on alternatives for apexcharts</t>
+  </si>
+  <si>
+    <t>Research on custom range sliders + Development WebUI</t>
   </si>
 </sst>
 </file>
@@ -475,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,75 +829,118 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>44251</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>95</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>44252</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>102</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>44253</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>110</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>44254</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>118</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>44255</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>125</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>134</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>44256</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>142</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>90</v>
+      <c r="A31" s="4">
+        <v>44257</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35">
-        <f t="shared" si="0"/>
-        <v>90</v>
+      <c r="A32" s="4">
+        <v>44258</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\GitHub\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C6D8CC-C3A4-4E3E-8B77-964F84D71F80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE27E65-3187-48D1-9531-DA46865A5D5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Datum</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Research on custom range sliders + Development WebUI</t>
+  </si>
+  <si>
+    <t>Development WebUI + Doku</t>
   </si>
 </sst>
 </file>
@@ -490,7 +493,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C35" si="0">C6+B7</f>
+        <f t="shared" ref="C7:C30" si="0">C6+B7</f>
         <v>6</v>
       </c>
       <c r="D7" t="s">
@@ -908,11 +911,11 @@
         <v>20</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
@@ -923,14 +926,14 @@
         <v>44256</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE27E65-3187-48D1-9531-DA46865A5D5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA72A16-1F86-437A-8A32-0C7E78633B0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Development WebUI + Doku</t>
+  </si>
+  <si>
+    <t>Präsentation</t>
+  </si>
+  <si>
+    <t>Video schneiden + Präsentation</t>
   </si>
 </sst>
 </file>
@@ -492,7 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -940,10 +946,30 @@
       <c r="A31" s="4">
         <v>44257</v>
       </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <f>C30+B31</f>
+        <v>147</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>44258</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <f>C31+B32</f>
+        <v>151</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA72A16-1F86-437A-8A32-0C7E78633B0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8039983E-E895-446D-A045-E20C4432DC4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Datum</t>
   </si>
@@ -54,64 +54,7 @@
     <t>Projekt Redpitaya Oszilloskop</t>
   </si>
   <si>
-    <t>Absprache Projekt</t>
-  </si>
-  <si>
-    <t>Sicherheitsunterweisung; Setup VM, Einarbeiten in Redpitaya</t>
-  </si>
-  <si>
-    <t>Meeting</t>
-  </si>
-  <si>
     <t>Studenliste von Sebastian Ederer</t>
-  </si>
-  <si>
-    <t>Wireframe für WebUI erstellen</t>
-  </si>
-  <si>
-    <t>Meeting und Anpassungen für das Wireframe</t>
-  </si>
-  <si>
-    <t>Passendes UI-Framework rausgesucht</t>
-  </si>
-  <si>
-    <t>Dokus und Tutorials über Vue.js gelesen/gesehen</t>
-  </si>
-  <si>
-    <t>Meeting + WebUI</t>
-  </si>
-  <si>
-    <t>Development WebUI</t>
-  </si>
-  <si>
-    <t>Meeting + Development WebUI</t>
-  </si>
-  <si>
-    <t>Meeting+Development WebUI</t>
-  </si>
-  <si>
-    <t>Meeting+Investigating Apexcharts</t>
-  </si>
-  <si>
-    <t>Poster + Development WebUI</t>
-  </si>
-  <si>
-    <t>29.02.2021</t>
-  </si>
-  <si>
-    <t>Research on alternatives for apexcharts</t>
-  </si>
-  <si>
-    <t>Research on custom range sliders + Development WebUI</t>
-  </si>
-  <si>
-    <t>Development WebUI + Doku</t>
-  </si>
-  <si>
-    <t>Präsentation</t>
-  </si>
-  <si>
-    <t>Video schneiden + Präsentation</t>
   </si>
 </sst>
 </file>
@@ -498,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +455,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -553,423 +496,198 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>44131</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
+      <c r="A5" s="4"/>
       <c r="C5">
         <f>B5</f>
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>44133</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
+      <c r="A6" s="4"/>
       <c r="C6">
         <f>C5+B6</f>
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>44145</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="C7">
         <f t="shared" ref="C7:C30" si="0">C6+B7</f>
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>44150</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="C8">
         <f>C7+B8</f>
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>44154</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>44156</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>44168</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>44174</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
+      <c r="A12" s="4"/>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>44182</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>44183</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>44186</v>
-      </c>
-      <c r="B15">
-        <v>8</v>
-      </c>
+      <c r="A15" s="4"/>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>44217</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
+      <c r="A16" s="4"/>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>44218</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>44221</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>44224</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>44245</v>
-      </c>
-      <c r="B20">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>44246</v>
-      </c>
-      <c r="B21">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>44247</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>44250</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>44251</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>44252</v>
-      </c>
-      <c r="B25">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-      <c r="D25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>44253</v>
-      </c>
-      <c r="B26">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>44254</v>
-      </c>
-      <c r="B27">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="D27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>44255</v>
-      </c>
-      <c r="B28">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>133</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>44256</v>
-      </c>
-      <c r="B30">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>143</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>44257</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
       <c r="C31">
         <f>C30+B31</f>
-        <v>147</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>44258</v>
-      </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
       <c r="C32">
         <f>C31+B32</f>
-        <v>151</v>
-      </c>
-      <c r="D32" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8039983E-E895-446D-A045-E20C4432DC4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D348D7F-5904-4D26-AF28-04DDC7A40FAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Datum</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Studenliste von Sebastian Ederer</t>
+  </si>
+  <si>
+    <t>Fixed git-merging issues</t>
+  </si>
+  <si>
+    <t>Organizational stuff; Research on jquery-ui</t>
   </si>
 </sst>
 </file>
@@ -442,7 +448,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,198 +502,214 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4">
+        <v>44276</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
       <c r="C5">
         <f>B5</f>
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4">
+        <v>44291</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
       <c r="C6">
         <f>C5+B6</f>
-        <v>0</v>
+        <v>6.5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="C7">
         <f t="shared" ref="C7:C30" si="0">C6+B7</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="C8">
         <f>C7+B8</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="C31">
         <f>C30+B31</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="C32">
         <f>C31+B32</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D348D7F-5904-4D26-AF28-04DDC7A40FAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40886559-B613-4952-842A-34202FDDF111}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Datum</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Organizational stuff; Research on jquery-ui</t>
+  </si>
+  <si>
+    <t>Research and experimenting with jquery-ui</t>
+  </si>
+  <si>
+    <t>Implemented Zooming-Feature with jquery-ui; Implemented vue-routing</t>
   </si>
 </sst>
 </file>
@@ -448,7 +454,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,184 +538,200 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4">
+        <v>44298</v>
+      </c>
+      <c r="B7">
+        <v>5.5</v>
+      </c>
       <c r="C7">
         <f t="shared" ref="C7:C30" si="0">C6+B7</f>
-        <v>6.5</v>
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4">
+        <v>44303</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
       <c r="C8">
         <f>C7+B8</f>
-        <v>6.5</v>
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="C31">
         <f>C30+B31</f>
-        <v>6.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="C32">
         <f>C31+B32</f>
-        <v>6.5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40886559-B613-4952-842A-34202FDDF111}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C9EBAE-445C-45EB-B800-C0157F87A7B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Datum</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Implemented Zooming-Feature with jquery-ui; Implemented vue-routing</t>
+  </si>
+  <si>
+    <t>Meeting + css fix</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,170 +571,178 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4">
+        <v>44308</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="C31">
         <f>C30+B31</f>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="C32">
         <f>C31+B32</f>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C9EBAE-445C-45EB-B800-C0157F87A7B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D99DE9-8A0C-498D-A477-A621002581A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Datum</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Meeting + css fix</t>
+  </si>
+  <si>
+    <t>Debugged webui on actual mobile device</t>
+  </si>
+  <si>
+    <t>Added touch-support for jquery ui, fixed routing and merge issues</t>
   </si>
 </sst>
 </file>
@@ -457,7 +463,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,163 +592,179 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="4">
+        <v>44312</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="4">
+        <v>44317</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="C31">
         <f>C30+B31</f>
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="C32">
         <f>C31+B32</f>
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D99DE9-8A0C-498D-A477-A621002581A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89387B4A-F9B4-43EB-B6BA-F99CE6827AEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Added touch-support for jquery ui, fixed routing and merge issues</t>
+  </si>
+  <si>
+    <t>Fixed vue routing</t>
   </si>
 </sst>
 </file>
@@ -463,7 +466,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,149 +625,157 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="4">
+        <v>44318</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="C31">
         <f>C30+B31</f>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="C32">
         <f>C31+B32</f>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89387B4A-F9B4-43EB-B6BA-F99CE6827AEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD6CC82-0F0B-46AE-AA85-EB6E81F237B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,11 +629,11 @@
         <v>44318</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -643,139 +643,139 @@
       <c r="A13" s="4"/>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="C31">
         <f>C30+B31</f>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="C32">
         <f>C31+B32</f>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD6CC82-0F0B-46AE-AA85-EB6E81F237B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695ABD79-2037-42C6-9C10-3E5FF72F8926}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -78,7 +78,7 @@
     <t>Added touch-support for jquery ui, fixed routing and merge issues</t>
   </si>
   <si>
-    <t>Fixed vue routing</t>
+    <t>Fixed vue routing; started to implement data receiving</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,11 +629,11 @@
         <v>44318</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -643,139 +643,139 @@
       <c r="A13" s="4"/>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="C31">
         <f>C30+B31</f>
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="C32">
         <f>C31+B32</f>
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695ABD79-2037-42C6-9C10-3E5FF72F8926}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA776155-7C6C-4BFE-92F9-FBEE60B5C5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Datum</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>Fixed vue routing; started to implement data receiving</t>
+  </si>
+  <si>
+    <t>Implemented uPlot as apexcharts cannot handle big data</t>
+  </si>
+  <si>
+    <t>Meeting + bug fixing</t>
+  </si>
+  <si>
+    <t>Worked on uPlot; Meeting</t>
   </si>
 </sst>
 </file>
@@ -466,7 +475,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,142 +649,166 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4">
+        <v>44319</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="4">
+        <v>44336</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="4">
+        <v>44350</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="C31">
         <f>C30+B31</f>
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="C32">
         <f>C31+B32</f>
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA776155-7C6C-4BFE-92F9-FBEE60B5C5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C173F5-EE25-4B38-B3D6-0E9BDFC0975F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Datum</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Worked on uPlot; Meeting</t>
+  </si>
+  <si>
+    <t>Bug fixing; Research and working on uPlot and data visualization</t>
   </si>
 </sst>
 </file>
@@ -475,7 +478,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,121 +697,129 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="4">
+        <v>44351</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="C31">
         <f>C30+B31</f>
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="C32">
         <f>C31+B32</f>
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C173F5-EE25-4B38-B3D6-0E9BDFC0975F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB74D111-EFDB-459A-9215-A1B5A2ADECED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Datum</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Bug fixing; Research and working on uPlot and data visualization</t>
+  </si>
+  <si>
+    <t>Implemented zooming for uPlot.</t>
   </si>
 </sst>
 </file>
@@ -478,7 +481,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,115 +714,123 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>44354</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="C31">
         <f>C30+B31</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="C32">
         <f>C31+B32</f>
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB74D111-EFDB-459A-9215-A1B5A2ADECED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6F92B1-5580-4DFD-AB24-3DEC10503269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Implemented zooming for uPlot.</t>
+  </si>
+  <si>
+    <t>Meeting; Fixed bug for uplot grip ranger</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,107 +733,115 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="4">
+        <v>44357</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="C31">
         <f>C30+B31</f>
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="C32">
         <f>C31+B32</f>
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6F92B1-5580-4DFD-AB24-3DEC10503269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758D074D-0D47-4104-AD62-B5B4791998A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Datum</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Meeting; Fixed bug for uplot grip ranger</t>
+  </si>
+  <si>
+    <t>Started implementing data annotations</t>
   </si>
 </sst>
 </file>
@@ -484,7 +487,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,100 +751,108 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="4">
+        <v>44396</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>85</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="C31">
         <f>C30+B31</f>
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="C32">
         <f>C31+B32</f>
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758D074D-0D47-4104-AD62-B5B4791998A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AA87D9-048B-47EE-938C-9FD1B440147F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Datum</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>Started implementing data annotations</t>
+  </si>
+  <si>
+    <t>Meeting + synced data annotation chart with range gripper</t>
+  </si>
+  <si>
+    <t>Meeting + implemented conditional rendering for data annotations</t>
   </si>
 </sst>
 </file>
@@ -152,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -164,6 +170,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -487,7 +494,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,22 +506,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -766,93 +773,109 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="4">
+        <v>44406</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1.5</v>
+      </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>86.5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="4">
+        <v>44412</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2.5</v>
+      </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="C31">
         <f>C30+B31</f>
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="C32">
         <f>C31+B32</f>
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AA87D9-048B-47EE-938C-9FD1B440147F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CF4E9A-7F5A-454B-8A8C-B98FA8EF5722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Meeting + implemented conditional rendering for data annotations</t>
+  </si>
+  <si>
+    <t>Improved data annotations. Started to improve navigation of charts</t>
+  </si>
+  <si>
+    <t>Research on canvas and experimenting mit UI/UX design.</t>
   </si>
 </sst>
 </file>
@@ -494,7 +500,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,79 +809,95 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="4">
+        <v>44413</v>
+      </c>
+      <c r="B22" s="5">
+        <v>6</v>
+      </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>95</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="4">
+        <v>44428</v>
+      </c>
+      <c r="B23" s="5">
+        <v>7</v>
+      </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>102</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="C31">
         <f>C30+B31</f>
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="C32">
         <f>C31+B32</f>
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758D074D-0D47-4104-AD62-B5B4791998A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C5A76F-B485-487A-AD58-CBF32CA323BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>Started implementing data annotations</t>
+  </si>
+  <si>
+    <t>Meeting + synced data annotation chart with range gripper</t>
+  </si>
+  <si>
+    <t>Meeting + implemented conditional rendering for data annotations</t>
+  </si>
+  <si>
+    <t>Improved data annotations. Started to improve navigation of charts</t>
+  </si>
+  <si>
+    <t>Research on canvas and experimenting mit UI/UX design.</t>
   </si>
 </sst>
 </file>
@@ -487,7 +499,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,93 +778,121 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="4">
+        <v>44406</v>
+      </c>
+      <c r="B20">
+        <v>1.5</v>
+      </c>
       <c r="C20">
-        <f t="shared" si="0"/>
-        <v>85</v>
+        <v>86.5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="4">
+        <v>44412</v>
+      </c>
+      <c r="B21">
+        <v>2.5</v>
+      </c>
       <c r="C21">
-        <f t="shared" si="0"/>
-        <v>85</v>
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="4">
+        <v>44413</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
       <c r="C22">
-        <f t="shared" si="0"/>
-        <v>85</v>
+        <v>95</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="4">
+        <v>44428</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
       <c r="C23">
-        <f t="shared" si="0"/>
-        <v>85</v>
+        <v>102</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="C31">
         <f>C30+B31</f>
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="C32">
         <f>C31+B32</f>
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CF4E9A-7F5A-454B-8A8C-B98FA8EF5722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E837C715-EB37-4DFD-B19D-DCEA15B828A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Datum</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>Research on canvas and experimenting mit UI/UX design.</t>
+  </si>
+  <si>
+    <t>Research on UI/UX for chart navigation</t>
+  </si>
+  <si>
+    <t>Further implemented chart navigation</t>
   </si>
 </sst>
 </file>
@@ -500,7 +506,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,65 +845,89 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="4">
+        <v>44433</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="4">
+        <v>44442</v>
+      </c>
+      <c r="B25" s="5">
+        <v>4</v>
+      </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>107</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="4">
+        <v>44443</v>
+      </c>
+      <c r="B26" s="5">
+        <v>3</v>
+      </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>110</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="C31">
         <f>C30+B31</f>
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="C32">
         <f>C31+B32</f>
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E837C715-EB37-4DFD-B19D-DCEA15B828A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3A1260-EF63-4CB6-92E6-8BCBB0774AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Datum</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Further implemented chart navigation</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Chart navigation (mobile support)</t>
   </si>
 </sst>
 </file>
@@ -506,7 +512,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,44 +896,69 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="4">
+        <v>44445</v>
+      </c>
+      <c r="B27" s="5">
+        <v>2</v>
+      </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="4">
+        <v>44447</v>
+      </c>
+      <c r="B28" s="5">
+        <v>6</v>
+      </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>118</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>44448</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>119</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="C31">
         <f>C30+B31</f>
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="C32">
         <f>C31+B32</f>
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3A1260-EF63-4CB6-92E6-8BCBB0774AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553A4614-93D7-43E7-B90C-73A04D4F2AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Datum</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>Chart navigation (mobile support)</t>
+  </si>
+  <si>
+    <t>Videoaufnahme, bug fixing</t>
+  </si>
+  <si>
+    <t>Poster</t>
   </si>
 </sst>
 </file>
@@ -511,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,24 +947,40 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A30" s="4">
+        <v>44452</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="A31" s="4">
+        <v>44456</v>
+      </c>
+      <c r="B31" s="5">
+        <v>4</v>
+      </c>
       <c r="C31">
         <f>C30+B31</f>
-        <v>119</v>
+        <v>124</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="C32">
         <f>C31+B32</f>
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553A4614-93D7-43E7-B90C-73A04D4F2AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BC248D-3CFE-41B6-AC16-F408BB654E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Datum</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Poster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemented DecodedData list with dropdown. </t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,10 +980,18 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
+      <c r="A32" s="4">
+        <v>44457</v>
+      </c>
+      <c r="B32" s="5">
+        <v>2.5</v>
+      </c>
       <c r="C32">
         <f>C31+B32</f>
-        <v>124</v>
+        <v>126.5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BC248D-3CFE-41B6-AC16-F408BB654E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F216C6-CBE3-44C7-B907-76ECEE4591DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Datum</t>
   </si>
@@ -132,7 +132,10 @@
     <t>Poster</t>
   </si>
   <si>
-    <t xml:space="preserve">Implemented DecodedData list with dropdown. </t>
+    <t xml:space="preserve">Implemented DecodedData list with dropdown, fixed DataAnnotations, disabled default zooming, synced cursors between all charts </t>
+  </si>
+  <si>
+    <t>Präsentation</t>
   </si>
 </sst>
 </file>
@@ -185,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -204,6 +207,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -518,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,14 +988,29 @@
         <v>44457</v>
       </c>
       <c r="B32" s="5">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="C32">
         <f>C31+B32</f>
-        <v>126.5</v>
+        <v>129</v>
       </c>
       <c r="D32" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>44457</v>
+      </c>
+      <c r="B33" s="5">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <f>C32+B33</f>
+        <v>130</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F216C6-CBE3-44C7-B907-76ECEE4591DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C779524E-D505-413A-9333-E4EE81A35A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Datum</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Präsentation</t>
+  </si>
+  <si>
+    <t>Videoschnitt</t>
   </si>
 </sst>
 </file>
@@ -188,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -207,7 +210,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -522,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,7 +1001,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="A33" s="4">
         <v>44457</v>
       </c>
       <c r="B33" s="5">
@@ -1011,6 +1013,21 @@
       </c>
       <c r="D33" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>44459</v>
+      </c>
+      <c r="B34" s="5">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <f>C33+B34</f>
+        <v>133</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C779524E-D505-413A-9333-E4EE81A35A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91060056-846D-4986-8363-679707765F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,11 +990,11 @@
         <v>44457</v>
       </c>
       <c r="B32" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32">
         <f>C31+B32</f>
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
         <v>32</v>
@@ -1005,11 +1005,11 @@
         <v>44457</v>
       </c>
       <c r="B33" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <f>C32+B33</f>
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D33" t="s">
         <v>33</v>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C34">
         <f>C33+B34</f>
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D34" t="s">
         <v>34</v>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91060056-846D-4986-8363-679707765F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78947E69-5DEF-45C5-AD58-1415800BD382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Datum</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Videoschnitt</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
   </si>
 </sst>
 </file>
@@ -524,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,16 +1020,31 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>44459</v>
+        <v>44458</v>
       </c>
       <c r="B34" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34">
         <f>C33+B34</f>
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>44459</v>
+      </c>
+      <c r="B35" s="5">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <f>C34+B35</f>
+        <v>139</v>
+      </c>
+      <c r="D35" t="s">
         <v>34</v>
       </c>
     </row>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78947E69-5DEF-45C5-AD58-1415800BD382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F855A22-7F06-4EAF-A580-C8C1E1BD3440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Audiomixing für Video</t>
   </si>
 </sst>
 </file>
@@ -527,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,6 +1051,36 @@
         <v>34</v>
       </c>
     </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>44460</v>
+      </c>
+      <c r="B36" s="5">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <f>C35+B36</f>
+        <v>141</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>44461</v>
+      </c>
+      <c r="B37" s="5">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <f>C36+B37</f>
+        <v>144</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>

--- a/stundenlisten/Stundenliste-SebastianEderer.xlsx
+++ b/stundenlisten/Stundenliste-SebastianEderer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Studium\PA1\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F855A22-7F06-4EAF-A580-C8C1E1BD3440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912B04E8-D5EE-42C1-BB10-1E3E00A75193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -66,18 +66,12 @@
     <t>Research and experimenting with jquery-ui</t>
   </si>
   <si>
-    <t>Implemented Zooming-Feature with jquery-ui; Implemented vue-routing</t>
-  </si>
-  <si>
     <t>Meeting + css fix</t>
   </si>
   <si>
     <t>Debugged webui on actual mobile device</t>
   </si>
   <si>
-    <t>Added touch-support for jquery ui, fixed routing and merge issues</t>
-  </si>
-  <si>
     <t>Fixed vue routing; started to implement data receiving</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>Worked on uPlot; Meeting</t>
   </si>
   <si>
-    <t>Bug fixing; Research and working on uPlot and data visualization</t>
-  </si>
-  <si>
     <t>Implemented zooming for uPlot.</t>
   </si>
   <si>
@@ -105,12 +96,6 @@
     <t>Meeting + synced data annotation chart with range gripper</t>
   </si>
   <si>
-    <t>Meeting + implemented conditional rendering for data annotations</t>
-  </si>
-  <si>
-    <t>Improved data annotations. Started to improve navigation of charts</t>
-  </si>
-  <si>
     <t>Research on canvas and experimenting mit UI/UX design.</t>
   </si>
   <si>
@@ -132,9 +117,6 @@
     <t>Poster</t>
   </si>
   <si>
-    <t xml:space="preserve">Implemented DecodedData list with dropdown, fixed DataAnnotations, disabled default zooming, synced cursors between all charts </t>
-  </si>
-  <si>
     <t>Präsentation</t>
   </si>
   <si>
@@ -144,7 +126,25 @@
     <t>Dokumentation</t>
   </si>
   <si>
-    <t>Audiomixing für Video</t>
+    <t>Audiomixing für Video, Videoschnitt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemented DecodedData, Fixes </t>
+  </si>
+  <si>
+    <t>Implemented Zooming-Feature with jquery-ui; vue-routing</t>
+  </si>
+  <si>
+    <t>Added touch-support for jqueryui, fixed routing &amp; merge issues</t>
+  </si>
+  <si>
+    <t>Meeting + implemented conditional rendering for annotations</t>
+  </si>
+  <si>
+    <t>Improved data annotations. Started to improve chart navigation</t>
+  </si>
+  <si>
+    <t>Bug fixing; Research + working on uPlot and data visualization</t>
   </si>
 </sst>
 </file>
@@ -530,10 +530,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +646,7 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -658,7 +661,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -673,7 +676,7 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -688,7 +691,7 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -703,7 +706,7 @@
         <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -718,7 +721,7 @@
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -733,7 +736,7 @@
         <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -748,7 +751,7 @@
         <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -763,7 +766,7 @@
         <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -778,7 +781,7 @@
         <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -793,7 +796,7 @@
         <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -808,7 +811,7 @@
         <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -823,7 +826,7 @@
         <v>86.5</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -838,7 +841,7 @@
         <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -853,7 +856,7 @@
         <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -868,7 +871,7 @@
         <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -883,7 +886,7 @@
         <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -898,7 +901,7 @@
         <v>107</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -913,7 +916,7 @@
         <v>110</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -928,7 +931,7 @@
         <v>112</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -943,7 +946,7 @@
         <v>118</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -958,7 +961,7 @@
         <v>119</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -973,7 +976,7 @@
         <v>120</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -984,11 +987,11 @@
         <v>4</v>
       </c>
       <c r="C31">
-        <f>C30+B31</f>
+        <f t="shared" ref="C31:C37" si="1">C30+B31</f>
         <v>124</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -999,11 +1002,11 @@
         <v>6</v>
       </c>
       <c r="C32">
-        <f>C31+B32</f>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1014,11 +1017,11 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <f>C32+B33</f>
+        <f t="shared" si="1"/>
         <v>132</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1029,11 +1032,11 @@
         <v>4</v>
       </c>
       <c r="C34">
-        <f>C33+B34</f>
+        <f t="shared" si="1"/>
         <v>136</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1044,11 +1047,11 @@
         <v>3</v>
       </c>
       <c r="C35">
-        <f>C34+B35</f>
+        <f t="shared" si="1"/>
         <v>139</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1059,11 +1062,11 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <f>C35+B36</f>
+        <f t="shared" si="1"/>
         <v>141</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1071,14 +1074,14 @@
         <v>44461</v>
       </c>
       <c r="B37" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <f>C36+B37</f>
-        <v>144</v>
+        <f t="shared" si="1"/>
+        <v>145</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1087,6 +1090,6 @@
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>